--- a/数据整理/stocks/A股/深证主板/002410-广联达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002410-广联达.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11126,7 +11127,6 @@
           <t>汇添富民营活力混合型证券投资基金 O</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
           <t>85.86</t>
@@ -11158,7 +11158,6 @@
           <t>银华稳利灵活配置混合C</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
           <t>21.05</t>
@@ -11174,6 +11173,4582 @@
       </c>
       <c r="H137" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H120"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>138.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.1251</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>125.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.8370</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>125.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.4579</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.8850</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.6267</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.3761</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>70.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.5823</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.5389</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>68.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.2278</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>60.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>68.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.0481</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>48.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.8512</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>36.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.5463</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>56.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.5348</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.4493</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>64.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.2539</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006111</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康弘实3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.1649</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华核心价值优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>41.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.0448</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>40.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.7933</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.7221</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>62.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.5418</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001910</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>24.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.5401</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>40.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.4100</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2729</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2226</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.2100</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1413</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.1223</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001986</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源人工智能主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.0451</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.0112</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9959</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>67.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.9677</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.53</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.9654</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8550</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7339</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7290</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6605</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>15.60</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6443</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>47.99</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6431</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6202</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006266</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6072</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008919</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5676</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5072</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002891</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5029</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002892</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.5029</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002893</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5029</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4730</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4417</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>180013</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银华领先策略混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4283</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005812</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4199</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4093</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4087</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3781</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3775</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>70.63</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3703</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3118</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2969</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2769</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2762</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2706</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>64.98</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2559</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2491</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2249</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1985</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>70.98</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1821</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>68.58</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006269</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1281</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>46.58</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>46.58</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010923</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>永赢鑫欣混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>66.73</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>工银瑞信优质精选混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005259</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>建信龙头企业股票</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>47.26</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005226</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>山西证券改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008920</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>001781</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>建信现代服务业股票</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>530019</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>建信社会责任混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>67.72</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002410-广联达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002410-广联达.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15754,4 +15755,5642 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H148"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>111.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.9588</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.7769</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>109.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.4233</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.5060</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.8009</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.3493</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>58.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.5318</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>55.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.3416</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>58.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.3147</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.2025</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.5034</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.4866</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>49.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.4593</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.3885</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>45.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.2053</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.0455</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006111</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康弘实3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>36.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.0269</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000118</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>173.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.9112</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>40.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>65.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.6021</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>44.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.5865</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>64.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.5051</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001910</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰康新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.5035</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>43.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.4110</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.3588</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.2791</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.2713</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>29.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.2442</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>21.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.2119</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.1915</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>34.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.1815</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>33.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.1615</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.1015</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>32.76</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.0975</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.0423</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>30.18</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.0384</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001986</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源人工智能主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.0330</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>72.34</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.9278</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>970016</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.8190</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>19.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.8092</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7946</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6060</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>65.24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5864</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5750</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4527</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4433</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4386</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4214</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4160</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002891</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4115</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002892</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4115</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002893</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4115</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4098</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4073</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4051</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4040</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>80.47</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3999</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>68.39</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3613</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>49.45</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3447</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3283</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3124</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>72.34</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2986</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2894</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2704</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2644</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>82.32</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2576</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2575</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>17.48</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>73.45</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2272</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2033</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>71.11</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1973</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000119</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011975</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>广发均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>15.19</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1641</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>970017</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>57.31</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>46.87</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>60.57</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>75.32</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>46.87</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009992</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>景顺长城量化成长演化混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>97.16</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>73.18</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>96.75</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>工银瑞信优质精选混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>57.31</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>000667</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>50.30</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>98.88</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010957</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>30.18</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005259</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>建信龙头企业股票</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010668</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>工银瑞信优选对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>58.12</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009335</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>工银瑞信稳健养老目标一年持有期混合（FOF）</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005226</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>山西证券改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>96.59</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>001789</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>46.74</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>010669</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>工银瑞信优选对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>58.12</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>73.22</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>000672</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合B</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>50.30</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>001781</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>建信现代服务业股票</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>530019</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>建信社会责任混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>70.53</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>011976</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>广发均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>010961</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002410-广联达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002410-广联达.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21393,4 +21394,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>147</v>
+      </c>
+      <c r="D2" t="n">
+        <v>108.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>119</v>
+      </c>
+      <c r="D3" t="n">
+        <v>103.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>136</v>
+      </c>
+      <c r="D4" t="n">
+        <v>106.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>144</v>
+      </c>
+      <c r="D5" t="n">
+        <v>119.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002410-广联达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002410-广联达.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21402,7 +21403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21413,17 +21414,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -21433,14 +21454,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>147</v>
-      </c>
-      <c r="D2" t="n">
-        <v>108.43</v>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>106.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.2367</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -21449,14 +21492,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>119</v>
-      </c>
-      <c r="D3" t="n">
-        <v>103.69</v>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>111.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.0107</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -21465,14 +21530,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>136</v>
-      </c>
-      <c r="D4" t="n">
-        <v>106.42</v>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.7085</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -21481,13 +21568,5049 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.5127</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.5724</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>47.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.4062</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>55.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.2627</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>55.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.2121</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>52.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.1295</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.0686</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.9639</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.5944</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.4171</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>32.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.4168</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.1528</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>43.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.1188</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.9063</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006111</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康弘实3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>36.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.8565</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>48.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.7037</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>67.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.5604</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>37.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.5390</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华核心价值优选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.4399</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>33.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3952</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001910</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰康新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.3075</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.2292</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.2109</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>29.94</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.29</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.1946</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.1800</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>32.76</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.1597</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>35.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.1155</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.0460</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001986</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源人工智能主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.9910</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.9779</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.9223</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新3年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>22.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7869</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6629</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6495</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6097</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5524</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5354</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>18.59</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4926</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008958</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实回报精选股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4856</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4589</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4455</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012408</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>48.55</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4030</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3922</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>14.45</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3916</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3662</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3576</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>74.49</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3559</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3435</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3165</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3084</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>180013</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华领先策略混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3032</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3004</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2937</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2846</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2844</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2806</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>97.54</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2793</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2479</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>48.48</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2354</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2213</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2210</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1924</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1893</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1886</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1847</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银瑞信优质精选混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1281</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002216</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>易方达量化策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>71.64</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>517800</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>方正富邦中证沪港深人工智能50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>71.64</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>97.09</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>003704</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>光大保德信事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>012409</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001789</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005226</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>山西证券改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002217</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>易方达量化策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>410010</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华富中小板指数增强</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>133</v>
+      </c>
+      <c r="D2" t="n">
+        <v>97.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>147</v>
+      </c>
+      <c r="D3" t="n">
+        <v>108.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>119</v>
+      </c>
+      <c r="D4" t="n">
+        <v>103.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>136</v>
+      </c>
+      <c r="D5" t="n">
+        <v>106.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>144</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>119.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002410-广联达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002410-广联达.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26509,7 +26510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26520,17 +26521,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -26540,14 +26561,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>133</v>
-      </c>
-      <c r="D2" t="n">
-        <v>97.61</v>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2919</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -26556,14 +26599,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>147</v>
-      </c>
-      <c r="D3" t="n">
-        <v>108.43</v>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.8177</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -26572,14 +26637,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>119</v>
-      </c>
-      <c r="D4" t="n">
-        <v>103.69</v>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.6104</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -26588,14 +26675,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>136</v>
-      </c>
-      <c r="D5" t="n">
-        <v>106.42</v>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.9971</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -26604,13 +26713,5559 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8238</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000118</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>208.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5673</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5344</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>39.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4034</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>62.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.3866</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>57.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.3851</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.1722</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>53.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9554</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006111</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康弘实3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>38.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.8853</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8697</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.8455</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>49.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.8203</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>73.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.7917</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.6840</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>27.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.3677</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>44.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.3074</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>59.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.2609</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1951</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.1257</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0536</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>46.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0284</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9999</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001910</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰康新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9670</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9570</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>22.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9262</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8650</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8476</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8445</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7906</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>71.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7769</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>18.78</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7719</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001986</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源人工智能主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7614</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7534</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6920</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5460</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5393</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新3年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5213</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5000</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>19.26</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4372</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>72.47</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4357</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>67.27</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4303</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4291</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3901</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012408</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>48.40</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3775</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008958</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实回报精选股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3767</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3374</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3265</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3204</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3123</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3052</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3033</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2941</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2905</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2840</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>72.51</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2760</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2749</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000119</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2526</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2219</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2212</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2202</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>66.63</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>工银瑞信优质精选混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>46.32</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>97.44</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011836</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>银华智能建造股票</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>71.21</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005870</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009992</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>景顺长城量化成长演化混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>012409</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>005226</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>山西证券改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>517800</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>方正富邦中证沪港深人工智能50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010872</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>004606</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>上投摩根优选多因子股票</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>银河量化价值混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>410010</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华富中小板指数增强</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>010873</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>147</v>
+      </c>
+      <c r="D2" t="n">
+        <v>82.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>133</v>
+      </c>
+      <c r="D3" t="n">
+        <v>97.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>147</v>
+      </c>
+      <c r="D4" t="n">
+        <v>108.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>119</v>
+      </c>
+      <c r="D5" t="n">
+        <v>103.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>136</v>
+      </c>
+      <c r="D6" t="n">
+        <v>106.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>144</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>119.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002410-广联达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002410-广联达.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -32148,7 +32149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32159,17 +32160,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -32179,14 +32200,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>147</v>
-      </c>
-      <c r="D2" t="n">
-        <v>82.89</v>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9818</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -32195,14 +32238,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>133</v>
-      </c>
-      <c r="D3" t="n">
-        <v>97.61</v>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.0152</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -32211,14 +32276,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>147</v>
-      </c>
-      <c r="D4" t="n">
-        <v>108.43</v>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.9907</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -32227,14 +32314,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>119</v>
-      </c>
-      <c r="D5" t="n">
-        <v>103.69</v>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.5885</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -32243,14 +32352,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>136</v>
-      </c>
-      <c r="D6" t="n">
-        <v>106.42</v>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.1442</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -32259,13 +32390,5119 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7764</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.6158</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>41.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.6040</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>54.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.5687</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>50.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.3897</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>36.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.3292</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>72.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>62.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.2558</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>46.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.1400</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>26.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.9230</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006111</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康弘实3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>33.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.8343</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>23.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.8266</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5306</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>62.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.4712</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.3093</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1981</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>37.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1373</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1305</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001910</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0615</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0389</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>34.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9870</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>35.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9650</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9504</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9114</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8279</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8246</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8124</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001986</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源人工智能主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7946</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7866</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7592</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7272</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6527</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009121</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发招享混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>50.62</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6479</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6088</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5181</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012408</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>45.14</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5056</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4787</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014528</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富MSCI中国A50互联互通ETF联接A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4770</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4704</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4401</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4279</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3841</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008958</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实回报精选股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3737</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013880</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发招享混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3634</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3588</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3431</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3308</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3186</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2926</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2907</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2524</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2340</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2337</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>71.06</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1928</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1736</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>560800</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏扬中证数字经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012218</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011314</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>农银汇理创新成长混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>62.90</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011836</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>银华智能建造股票</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005681</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>74.77</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>98.12</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012409</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>014130</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>517800</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>方正富邦中证沪港深人工智能50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005226</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>山西证券改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>013410</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>012219</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>136</v>
+      </c>
+      <c r="D2" t="n">
+        <v>83.06999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>147</v>
+      </c>
+      <c r="D3" t="n">
+        <v>82.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>133</v>
+      </c>
+      <c r="D4" t="n">
+        <v>97.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>147</v>
+      </c>
+      <c r="D5" t="n">
+        <v>108.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>119</v>
+      </c>
+      <c r="D6" t="n">
+        <v>103.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>136</v>
+      </c>
+      <c r="D7" t="n">
+        <v>106.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>144</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>119.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002410-广联达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002410-广联达.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D2" t="n">
-        <v>83.06999999999999</v>
+        <v>70.43000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D3" t="n">
-        <v>82.89</v>
+        <v>83.06999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="D4" t="n">
-        <v>97.61</v>
+        <v>82.89</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D5" t="n">
-        <v>108.43</v>
+        <v>97.61</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="D6" t="n">
-        <v>103.69</v>
+        <v>108.43</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D7" t="n">
-        <v>106.42</v>
+        <v>103.69</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>136</v>
+      </c>
+      <c r="D8" t="n">
+        <v>106.42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>144</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>119.59</v>
       </c>
     </row>
@@ -600,6 +617,5410 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H142"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0964</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2070</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1838</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.8983</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.8287</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.6780</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1539</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9523</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>46.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9107</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>65.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8910</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>37.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.7358</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6022</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5780</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000118</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>145.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5605</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5029</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.4834</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006111</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康弘实3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3880</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3348</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>32.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2922</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>30.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0984</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银互联网加股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>34.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9850</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001910</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰康新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8886</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8718</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>29.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8291</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7652</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时成长优势混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.96</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7645</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7630</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>46.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7447</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>70.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7284</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6791</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5901</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5886</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5811</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009121</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发招享混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>23.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5714</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011930</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏时代前沿一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>16.60</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5594</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>18.82</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5307</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4761</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>14.74</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4761</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4664</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4411</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4344</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4249</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4011</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3928</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3327</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3313</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3294</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3177</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008958</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实回报精选股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3130</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012408</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>29.71</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3060</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2866</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2791</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013880</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发招享混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>23.12</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2452</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2361</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2346</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>72.77</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2281</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2138</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>14.65</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1919</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000854</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华养老产业股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000119</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>16.95</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1775</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>96.35</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>70.64</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011931</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华夏时代前沿一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>46.90</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012321</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>新华中证云计算50ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>70.01</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011314</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>农银汇理创新成长混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011836</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>银华智能建造股票</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>招商中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009992</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>景顺长城量化成长演化混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005681</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>159738</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深云计算产业ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>97.71</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>159739</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>鹏华中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012322</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>工银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>014130</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>96.75</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>517390</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深云计算产业ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>博时成长优势混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>工银信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>012409</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>517800</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>方正富邦中证沪港深AI50ETF</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>070017</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>嘉实量化阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>005226</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>山西证券改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>013410</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合 O</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>015198</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>015199</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票D</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5819,7 +11240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11457,7 +16878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16563,7 +21984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22201,7 +27622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26777,7 +32198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -31987,7 +37408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
